--- a/medicine/Psychotrope/Hanseatische_Brauerei_Rostock/Hanseatische_Brauerei_Rostock.xlsx
+++ b/medicine/Psychotrope/Hanseatische_Brauerei_Rostock/Hanseatische_Brauerei_Rostock.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La Hanseatische Brauerei Rostock GmbH est une brasserie à Rostock.
@@ -512,7 +524,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">À Rostock, la bière était brassée commercialement depuis le milieu du XIIIe siècle. La tradition est influencée par l'Histoire, notamment par la Hanse et la Scandinavie. Le 28 mars 1878, les ingénieurs Friedrich Ohlerich et Georg Mahn achètent la brasserie Julius Meyersche et la renomment brasserie Mahn &amp; Ohlerich. Au XIXe siècle et début du XXe siècle, elle est une importante brasserie régionale.
 En 1945, la brasserie est fermée, toutes les installations sont démantelées et transférées en Union Soviétique. Cependant, elle est rapidement reconstruite. Du temps de la RDA, elle a pour nom VEB Rostocker Brauerei et atteint de nouveau les ventes de bière au niveau d'avant-guerre.
@@ -546,7 +560,9 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Rostocker Pils
 Rostocker Export
